--- a/番剧数据-原始数据【国产动画-2021-2023】.xlsx
+++ b/番剧数据-原始数据【国产动画-2021-2023】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9060"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3261,7 +3261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3272,13 +3272,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3761,13 +3754,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3776,118 +3772,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3902,7 +3895,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4251,15 +4244,15 @@
   <sheetPr/>
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="D487" sqref="D487"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="I478" sqref="I478"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="22.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="20.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.5545454545455" customWidth="1"/>
+    <col min="4" max="4" width="20.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="18.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4295,7 +4288,9 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>2023</v>
+      </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -4328,7 +4323,9 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2023</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4361,7 +4358,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>2023</v>
+      </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4394,7 +4393,9 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>2023</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -4427,7 +4428,9 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>2023</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -4460,7 +4463,9 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2023</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -4493,7 +4498,9 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>2023</v>
+      </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -4526,7 +4533,9 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>2023</v>
+      </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -4559,7 +4568,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>2023</v>
+      </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -4592,7 +4603,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>2023</v>
+      </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -4625,7 +4638,9 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>2023</v>
+      </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -4658,7 +4673,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>2023</v>
+      </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -4691,7 +4708,9 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>2023</v>
+      </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -4724,7 +4743,9 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>2023</v>
+      </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -4757,7 +4778,9 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>2023</v>
+      </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -4790,7 +4813,9 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>2023</v>
+      </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -4823,7 +4848,9 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>2023</v>
+      </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -4856,7 +4883,9 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>2023</v>
+      </c>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -4889,7 +4918,9 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>2023</v>
+      </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -4922,7 +4953,9 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>2023</v>
+      </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -4955,7 +4988,9 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>2023</v>
+      </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -4988,7 +5023,9 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>2023</v>
+      </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -5021,7 +5058,9 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>2023</v>
+      </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -5054,7 +5093,9 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>2023</v>
+      </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -5087,7 +5128,9 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>2023</v>
+      </c>
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5120,7 +5163,9 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>2023</v>
+      </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5153,7 +5198,9 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>2023</v>
+      </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5186,7 +5233,9 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>2023</v>
+      </c>
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5219,7 +5268,9 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>2023</v>
+      </c>
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -5252,7 +5303,9 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>2023</v>
+      </c>
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -5285,7 +5338,9 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>2023</v>
+      </c>
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -5318,7 +5373,9 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>2023</v>
+      </c>
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -5351,7 +5408,9 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>2023</v>
+      </c>
       <c r="B34" s="2">
         <v>32</v>
       </c>
@@ -5384,7 +5443,9 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>2023</v>
+      </c>
       <c r="B35" s="2">
         <v>33</v>
       </c>
@@ -5417,7 +5478,9 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>2023</v>
+      </c>
       <c r="B36" s="2">
         <v>34</v>
       </c>
@@ -5450,7 +5513,9 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>2023</v>
+      </c>
       <c r="B37" s="2">
         <v>35</v>
       </c>
@@ -5483,7 +5548,9 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>2023</v>
+      </c>
       <c r="B38" s="2">
         <v>36</v>
       </c>
@@ -5516,7 +5583,9 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>2023</v>
+      </c>
       <c r="B39" s="2">
         <v>37</v>
       </c>
@@ -5549,7 +5618,9 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>2023</v>
+      </c>
       <c r="B40" s="2">
         <v>38</v>
       </c>
@@ -5582,7 +5653,9 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>2023</v>
+      </c>
       <c r="B41" s="2">
         <v>39</v>
       </c>
@@ -5615,7 +5688,9 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>2023</v>
+      </c>
       <c r="B42" s="2">
         <v>40</v>
       </c>
@@ -5648,7 +5723,9 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>2023</v>
+      </c>
       <c r="B43" s="2">
         <v>41</v>
       </c>
@@ -5681,7 +5758,9 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>2023</v>
+      </c>
       <c r="B44" s="2">
         <v>42</v>
       </c>
@@ -5714,7 +5793,9 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>2023</v>
+      </c>
       <c r="B45" s="2">
         <v>43</v>
       </c>
@@ -5747,7 +5828,9 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>2023</v>
+      </c>
       <c r="B46" s="2">
         <v>44</v>
       </c>
@@ -5780,7 +5863,9 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>2023</v>
+      </c>
       <c r="B47" s="2">
         <v>45</v>
       </c>
@@ -5813,7 +5898,9 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>2023</v>
+      </c>
       <c r="B48" s="2">
         <v>46</v>
       </c>
@@ -5846,7 +5933,9 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>2023</v>
+      </c>
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -5879,7 +5968,9 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>2023</v>
+      </c>
       <c r="B50" s="2">
         <v>48</v>
       </c>
@@ -5912,7 +6003,9 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>2023</v>
+      </c>
       <c r="B51" s="2">
         <v>49</v>
       </c>
@@ -5945,7 +6038,9 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>2023</v>
+      </c>
       <c r="B52" s="2">
         <v>50</v>
       </c>
@@ -5978,7 +6073,9 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>2023</v>
+      </c>
       <c r="B53" s="2">
         <v>51</v>
       </c>
@@ -6011,7 +6108,9 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>2023</v>
+      </c>
       <c r="B54" s="2">
         <v>52</v>
       </c>
@@ -6044,7 +6143,9 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>2023</v>
+      </c>
       <c r="B55" s="2">
         <v>53</v>
       </c>
@@ -6077,7 +6178,9 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>2023</v>
+      </c>
       <c r="B56" s="2">
         <v>54</v>
       </c>
@@ -6110,7 +6213,9 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>2023</v>
+      </c>
       <c r="B57" s="2">
         <v>55</v>
       </c>
@@ -6143,7 +6248,9 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>2023</v>
+      </c>
       <c r="B58" s="2">
         <v>56</v>
       </c>
@@ -6176,7 +6283,9 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>2023</v>
+      </c>
       <c r="B59" s="2">
         <v>57</v>
       </c>
@@ -6209,7 +6318,9 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>2023</v>
+      </c>
       <c r="B60" s="2">
         <v>58</v>
       </c>
@@ -6242,7 +6353,9 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>2023</v>
+      </c>
       <c r="B61" s="2">
         <v>59</v>
       </c>
@@ -6275,7 +6388,9 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>2023</v>
+      </c>
       <c r="B62" s="2">
         <v>60</v>
       </c>
@@ -6308,7 +6423,9 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>2023</v>
+      </c>
       <c r="B63" s="2">
         <v>61</v>
       </c>
@@ -6341,7 +6458,9 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>2023</v>
+      </c>
       <c r="B64" s="2">
         <v>62</v>
       </c>
@@ -6374,7 +6493,9 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>2023</v>
+      </c>
       <c r="B65" s="2">
         <v>63</v>
       </c>
@@ -6407,7 +6528,9 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>2023</v>
+      </c>
       <c r="B66" s="2">
         <v>64</v>
       </c>
@@ -6440,7 +6563,9 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>2023</v>
+      </c>
       <c r="B67" s="2">
         <v>65</v>
       </c>
@@ -6473,7 +6598,9 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>2023</v>
+      </c>
       <c r="B68" s="2">
         <v>66</v>
       </c>
@@ -6506,7 +6633,9 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>2023</v>
+      </c>
       <c r="B69" s="2">
         <v>67</v>
       </c>
@@ -6539,7 +6668,9 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>2023</v>
+      </c>
       <c r="B70" s="2">
         <v>68</v>
       </c>
@@ -6572,7 +6703,9 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>2023</v>
+      </c>
       <c r="B71" s="2">
         <v>69</v>
       </c>
@@ -6605,7 +6738,9 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>2023</v>
+      </c>
       <c r="B72" s="2">
         <v>70</v>
       </c>
@@ -6638,7 +6773,9 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>2023</v>
+      </c>
       <c r="B73" s="2">
         <v>71</v>
       </c>
@@ -6671,7 +6808,9 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>2023</v>
+      </c>
       <c r="B74" s="2">
         <v>72</v>
       </c>
@@ -6704,7 +6843,9 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>2023</v>
+      </c>
       <c r="B75" s="2">
         <v>73</v>
       </c>
@@ -6737,7 +6878,9 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>2023</v>
+      </c>
       <c r="B76" s="2">
         <v>74</v>
       </c>
@@ -6770,7 +6913,9 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>2023</v>
+      </c>
       <c r="B77" s="2">
         <v>75</v>
       </c>
@@ -6803,7 +6948,9 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>2023</v>
+      </c>
       <c r="B78" s="2">
         <v>76</v>
       </c>
@@ -6836,7 +6983,9 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>2023</v>
+      </c>
       <c r="B79" s="2">
         <v>77</v>
       </c>
@@ -6869,7 +7018,9 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>2023</v>
+      </c>
       <c r="B80" s="2">
         <v>78</v>
       </c>
@@ -6902,7 +7053,9 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>2023</v>
+      </c>
       <c r="B81" s="2">
         <v>79</v>
       </c>
@@ -6935,7 +7088,9 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>2023</v>
+      </c>
       <c r="B82" s="2">
         <v>80</v>
       </c>
@@ -6968,7 +7123,9 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>2023</v>
+      </c>
       <c r="B83" s="2">
         <v>81</v>
       </c>
@@ -7001,7 +7158,9 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>2023</v>
+      </c>
       <c r="B84" s="2">
         <v>82</v>
       </c>
@@ -7034,7 +7193,9 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>2023</v>
+      </c>
       <c r="B85" s="2">
         <v>83</v>
       </c>
@@ -7067,7 +7228,9 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>2023</v>
+      </c>
       <c r="B86" s="2">
         <v>84</v>
       </c>
@@ -7100,7 +7263,9 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>2023</v>
+      </c>
       <c r="B87" s="2">
         <v>85</v>
       </c>
@@ -7133,7 +7298,9 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>2023</v>
+      </c>
       <c r="B88" s="2">
         <v>86</v>
       </c>
@@ -7166,7 +7333,9 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>2023</v>
+      </c>
       <c r="B89" s="2">
         <v>87</v>
       </c>
@@ -7199,7 +7368,9 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>2023</v>
+      </c>
       <c r="B90" s="2">
         <v>88</v>
       </c>
@@ -7232,7 +7403,9 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>2023</v>
+      </c>
       <c r="B91" s="2">
         <v>89</v>
       </c>
@@ -7265,7 +7438,9 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>2023</v>
+      </c>
       <c r="B92" s="2">
         <v>90</v>
       </c>
@@ -7298,7 +7473,9 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>2023</v>
+      </c>
       <c r="B93" s="2">
         <v>91</v>
       </c>
@@ -7331,7 +7508,9 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>2023</v>
+      </c>
       <c r="B94" s="2">
         <v>92</v>
       </c>
@@ -7364,7 +7543,9 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>2023</v>
+      </c>
       <c r="B95" s="2">
         <v>93</v>
       </c>
@@ -7397,7 +7578,9 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>2023</v>
+      </c>
       <c r="B96" s="2">
         <v>94</v>
       </c>
@@ -7430,7 +7613,9 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>2023</v>
+      </c>
       <c r="B97" s="2">
         <v>95</v>
       </c>
@@ -7463,7 +7648,9 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>2023</v>
+      </c>
       <c r="B98" s="2">
         <v>96</v>
       </c>
@@ -7496,7 +7683,9 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>2023</v>
+      </c>
       <c r="B99" s="2">
         <v>97</v>
       </c>
@@ -7529,7 +7718,9 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>2023</v>
+      </c>
       <c r="B100" s="2">
         <v>98</v>
       </c>
@@ -7562,7 +7753,9 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>2023</v>
+      </c>
       <c r="B101" s="2">
         <v>99</v>
       </c>
@@ -7595,7 +7788,9 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>2023</v>
+      </c>
       <c r="B102" s="2">
         <v>100</v>
       </c>
@@ -7628,7 +7823,9 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>2023</v>
+      </c>
       <c r="B103" s="2">
         <v>101</v>
       </c>
@@ -7661,7 +7858,9 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>2023</v>
+      </c>
       <c r="B104" s="2">
         <v>102</v>
       </c>
@@ -7694,7 +7893,9 @@
       </c>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>2023</v>
+      </c>
       <c r="B105" s="2">
         <v>103</v>
       </c>
@@ -7727,7 +7928,9 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>2023</v>
+      </c>
       <c r="B106" s="2">
         <v>104</v>
       </c>
@@ -7760,7 +7963,9 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>2023</v>
+      </c>
       <c r="B107" s="2">
         <v>105</v>
       </c>
@@ -7793,7 +7998,9 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>2023</v>
+      </c>
       <c r="B108" s="2">
         <v>106</v>
       </c>
@@ -7826,7 +8033,9 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>2023</v>
+      </c>
       <c r="B109" s="2">
         <v>107</v>
       </c>
@@ -7859,7 +8068,9 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>2023</v>
+      </c>
       <c r="B110" s="2">
         <v>108</v>
       </c>
@@ -7892,7 +8103,9 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>2023</v>
+      </c>
       <c r="B111" s="2">
         <v>109</v>
       </c>
@@ -7925,7 +8138,9 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>2023</v>
+      </c>
       <c r="B112" s="2">
         <v>110</v>
       </c>
@@ -7958,7 +8173,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>2023</v>
+      </c>
       <c r="B113" s="2">
         <v>111</v>
       </c>
@@ -7991,7 +8208,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>2023</v>
+      </c>
       <c r="B114" s="2">
         <v>112</v>
       </c>
@@ -8024,7 +8243,9 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>2023</v>
+      </c>
       <c r="B115" s="2">
         <v>113</v>
       </c>
@@ -8057,7 +8278,9 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>2023</v>
+      </c>
       <c r="B116" s="2">
         <v>114</v>
       </c>
@@ -8090,7 +8313,9 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>2023</v>
+      </c>
       <c r="B117" s="2">
         <v>115</v>
       </c>
@@ -8123,7 +8348,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>2023</v>
+      </c>
       <c r="B118" s="2">
         <v>116</v>
       </c>
@@ -8156,7 +8383,9 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>2023</v>
+      </c>
       <c r="B119" s="2">
         <v>117</v>
       </c>
@@ -8189,7 +8418,9 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>2023</v>
+      </c>
       <c r="B120" s="2">
         <v>118</v>
       </c>
@@ -8222,7 +8453,9 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>2023</v>
+      </c>
       <c r="B121" s="2">
         <v>119</v>
       </c>
@@ -8255,7 +8488,9 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>2023</v>
+      </c>
       <c r="B122" s="2">
         <v>120</v>
       </c>
@@ -8288,7 +8523,9 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>2023</v>
+      </c>
       <c r="B123" s="2">
         <v>121</v>
       </c>
@@ -8321,7 +8558,9 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>2023</v>
+      </c>
       <c r="B124" s="2">
         <v>122</v>
       </c>
@@ -8354,7 +8593,9 @@
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>2023</v>
+      </c>
       <c r="B125" s="2">
         <v>123</v>
       </c>
@@ -8387,7 +8628,9 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>2023</v>
+      </c>
       <c r="B126" s="2">
         <v>124</v>
       </c>
@@ -8420,7 +8663,9 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>2023</v>
+      </c>
       <c r="B127" s="2">
         <v>125</v>
       </c>
@@ -8453,7 +8698,9 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>2023</v>
+      </c>
       <c r="B128" s="2">
         <v>126</v>
       </c>
@@ -8486,7 +8733,9 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>2023</v>
+      </c>
       <c r="B129" s="2">
         <v>127</v>
       </c>
@@ -8519,7 +8768,9 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>2023</v>
+      </c>
       <c r="B130" s="2">
         <v>128</v>
       </c>
@@ -8552,7 +8803,9 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>2023</v>
+      </c>
       <c r="B131" s="2">
         <v>129</v>
       </c>
@@ -8585,7 +8838,9 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>2023</v>
+      </c>
       <c r="B132" s="2">
         <v>130</v>
       </c>
@@ -8618,7 +8873,9 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>2023</v>
+      </c>
       <c r="B133" s="2">
         <v>131</v>
       </c>
@@ -8651,7 +8908,9 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>2023</v>
+      </c>
       <c r="B134" s="2">
         <v>132</v>
       </c>
@@ -8684,7 +8943,9 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>2023</v>
+      </c>
       <c r="B135" s="2">
         <v>133</v>
       </c>
@@ -8717,7 +8978,9 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>2023</v>
+      </c>
       <c r="B136" s="2">
         <v>134</v>
       </c>
@@ -8750,7 +9013,9 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>2023</v>
+      </c>
       <c r="B137" s="2">
         <v>135</v>
       </c>
@@ -8783,7 +9048,9 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>2023</v>
+      </c>
       <c r="B138" s="2">
         <v>136</v>
       </c>
@@ -8816,7 +9083,9 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>2023</v>
+      </c>
       <c r="B139" s="2">
         <v>137</v>
       </c>
@@ -8849,7 +9118,9 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>2023</v>
+      </c>
       <c r="B140" s="2">
         <v>138</v>
       </c>
@@ -8882,7 +9153,9 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>2023</v>
+      </c>
       <c r="B141" s="2">
         <v>139</v>
       </c>
@@ -8915,7 +9188,9 @@
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>2023</v>
+      </c>
       <c r="B142" s="2">
         <v>140</v>
       </c>
@@ -8948,7 +9223,9 @@
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>2023</v>
+      </c>
       <c r="B143" s="2">
         <v>141</v>
       </c>
@@ -8981,7 +9258,9 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>2023</v>
+      </c>
       <c r="B144" s="2">
         <v>142</v>
       </c>
@@ -9014,7 +9293,9 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>2023</v>
+      </c>
       <c r="B145" s="2">
         <v>143</v>
       </c>
@@ -9047,7 +9328,9 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>2023</v>
+      </c>
       <c r="B146" s="2">
         <v>144</v>
       </c>
@@ -9080,7 +9363,9 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>2023</v>
+      </c>
       <c r="B147" s="2">
         <v>145</v>
       </c>
@@ -9113,7 +9398,9 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>2023</v>
+      </c>
       <c r="B148" s="2">
         <v>146</v>
       </c>
@@ -9146,7 +9433,9 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>2023</v>
+      </c>
       <c r="B149" s="2">
         <v>147</v>
       </c>
@@ -9179,7 +9468,9 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>2023</v>
+      </c>
       <c r="B150" s="2">
         <v>148</v>
       </c>
@@ -9212,7 +9503,9 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>2023</v>
+      </c>
       <c r="B151" s="2">
         <v>149</v>
       </c>
@@ -9245,7 +9538,9 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>2023</v>
+      </c>
       <c r="B152" s="2">
         <v>150</v>
       </c>
@@ -9278,7 +9573,9 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>2023</v>
+      </c>
       <c r="B153" s="2">
         <v>151</v>
       </c>
@@ -9311,7 +9608,9 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>2023</v>
+      </c>
       <c r="B154" s="2">
         <v>152</v>
       </c>
@@ -9344,7 +9643,9 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>2023</v>
+      </c>
       <c r="B155" s="2">
         <v>153</v>
       </c>
@@ -9377,7 +9678,9 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>2023</v>
+      </c>
       <c r="B156" s="2">
         <v>154</v>
       </c>
@@ -9410,7 +9713,9 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>2023</v>
+      </c>
       <c r="B157" s="2">
         <v>155</v>
       </c>
@@ -9443,7 +9748,9 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>2023</v>
+      </c>
       <c r="B158" s="2">
         <v>156</v>
       </c>
@@ -9476,7 +9783,9 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>2023</v>
+      </c>
       <c r="B159" s="2">
         <v>157</v>
       </c>
@@ -9509,7 +9818,9 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>2023</v>
+      </c>
       <c r="B160" s="2">
         <v>158</v>
       </c>
@@ -9542,7 +9853,9 @@
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>2023</v>
+      </c>
       <c r="B161" s="2">
         <v>159</v>
       </c>
@@ -9575,7 +9888,9 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>2023</v>
+      </c>
       <c r="B162" s="2">
         <v>160</v>
       </c>
@@ -9608,7 +9923,9 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>2023</v>
+      </c>
       <c r="B163" s="2">
         <v>161</v>
       </c>
@@ -9641,7 +9958,9 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>2023</v>
+      </c>
       <c r="B164" s="2">
         <v>162</v>
       </c>
@@ -9674,7 +9993,9 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>2023</v>
+      </c>
       <c r="B165" s="2">
         <v>163</v>
       </c>
@@ -9707,7 +10028,9 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>2023</v>
+      </c>
       <c r="B166" s="2">
         <v>164</v>
       </c>
@@ -9740,7 +10063,9 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>2023</v>
+      </c>
       <c r="B167" s="2">
         <v>165</v>
       </c>
@@ -9773,7 +10098,9 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>2023</v>
+      </c>
       <c r="B168" s="2">
         <v>166</v>
       </c>
@@ -9806,7 +10133,9 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>2023</v>
+      </c>
       <c r="B169" s="2">
         <v>167</v>
       </c>
@@ -9839,7 +10168,9 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>2023</v>
+      </c>
       <c r="B170" s="2">
         <v>168</v>
       </c>
@@ -9872,7 +10203,9 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>2023</v>
+      </c>
       <c r="B171" s="2">
         <v>169</v>
       </c>
@@ -9905,7 +10238,9 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>2023</v>
+      </c>
       <c r="B172" s="2">
         <v>170</v>
       </c>
@@ -9938,7 +10273,9 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>2023</v>
+      </c>
       <c r="B173" s="2">
         <v>171</v>
       </c>
@@ -9971,7 +10308,9 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>2023</v>
+      </c>
       <c r="B174" s="2">
         <v>172</v>
       </c>
@@ -10004,7 +10343,9 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>2023</v>
+      </c>
       <c r="B175" s="2">
         <v>173</v>
       </c>
@@ -10037,7 +10378,9 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>2023</v>
+      </c>
       <c r="B176" s="2">
         <v>174</v>
       </c>
@@ -10070,7 +10413,9 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>2023</v>
+      </c>
       <c r="B177" s="2">
         <v>175</v>
       </c>
@@ -10103,7 +10448,9 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>2023</v>
+      </c>
       <c r="B178" s="2">
         <v>176</v>
       </c>
@@ -10136,7 +10483,9 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>2023</v>
+      </c>
       <c r="B179" s="2">
         <v>177</v>
       </c>
@@ -10169,7 +10518,9 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>2023</v>
+      </c>
       <c r="B180" s="2">
         <v>178</v>
       </c>
@@ -10202,7 +10553,9 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>2023</v>
+      </c>
       <c r="B181" s="2">
         <v>179</v>
       </c>
@@ -10235,7 +10588,9 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>2023</v>
+      </c>
       <c r="B182" s="2">
         <v>180</v>
       </c>
@@ -10268,7 +10623,9 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>2023</v>
+      </c>
       <c r="B183" s="2">
         <v>181</v>
       </c>
@@ -10301,7 +10658,9 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>2023</v>
+      </c>
       <c r="B184" s="2">
         <v>182</v>
       </c>
@@ -10334,7 +10693,9 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>2023</v>
+      </c>
       <c r="B185" s="2">
         <v>183</v>
       </c>
@@ -10367,7 +10728,9 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>2023</v>
+      </c>
       <c r="B186" s="2">
         <v>184</v>
       </c>
@@ -10400,7 +10763,9 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>2023</v>
+      </c>
       <c r="B187" s="2">
         <v>185</v>
       </c>
@@ -10433,7 +10798,9 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>2023</v>
+      </c>
       <c r="B188" s="2">
         <v>186</v>
       </c>
@@ -10466,7 +10833,9 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>2023</v>
+      </c>
       <c r="B189" s="2">
         <v>187</v>
       </c>
@@ -10499,7 +10868,9 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>2023</v>
+      </c>
       <c r="B190" s="2">
         <v>188</v>
       </c>
@@ -10532,7 +10903,9 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>2023</v>
+      </c>
       <c r="B191" s="2">
         <v>189</v>
       </c>
@@ -10565,7 +10938,9 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1">
+        <v>2023</v>
+      </c>
       <c r="B192" s="2">
         <v>190</v>
       </c>
@@ -10598,7 +10973,9 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1">
+        <v>2023</v>
+      </c>
       <c r="B193" s="2">
         <v>191</v>
       </c>
@@ -10631,7 +11008,9 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1">
+        <v>2023</v>
+      </c>
       <c r="B194" s="2">
         <v>192</v>
       </c>
@@ -10664,7 +11043,9 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1">
+        <v>2023</v>
+      </c>
       <c r="B195" s="2">
         <v>193</v>
       </c>
@@ -10697,7 +11078,9 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1">
+        <v>2023</v>
+      </c>
       <c r="B196" s="2">
         <v>194</v>
       </c>
@@ -10730,7 +11113,9 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1">
+        <v>2023</v>
+      </c>
       <c r="B197" s="2">
         <v>195</v>
       </c>
@@ -10763,7 +11148,9 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>2023</v>
+      </c>
       <c r="B198" s="2">
         <v>196</v>
       </c>
@@ -10796,7 +11183,9 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>2023</v>
+      </c>
       <c r="B199" s="2">
         <v>197</v>
       </c>
@@ -10829,7 +11218,9 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>2023</v>
+      </c>
       <c r="B200" s="2">
         <v>198</v>
       </c>
@@ -10862,7 +11253,9 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>2023</v>
+      </c>
       <c r="B201" s="2">
         <v>199</v>
       </c>
@@ -10933,7 +11326,9 @@
       <c r="N202" s="4"/>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>2022</v>
+      </c>
       <c r="B203" s="3">
         <v>1</v>
       </c>
@@ -10969,7 +11364,9 @@
       <c r="N203" s="4"/>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>2022</v>
+      </c>
       <c r="B204" s="3">
         <v>2</v>
       </c>
@@ -11005,7 +11402,9 @@
       <c r="N204" s="4"/>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>2022</v>
+      </c>
       <c r="B205" s="3">
         <v>3</v>
       </c>
@@ -11041,7 +11440,9 @@
       <c r="N205" s="4"/>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>2022</v>
+      </c>
       <c r="B206" s="3">
         <v>4</v>
       </c>
@@ -11077,7 +11478,9 @@
       <c r="N206" s="4"/>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>2022</v>
+      </c>
       <c r="B207" s="3">
         <v>5</v>
       </c>
@@ -11113,7 +11516,9 @@
       <c r="N207" s="4"/>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>2022</v>
+      </c>
       <c r="B208" s="3">
         <v>6</v>
       </c>
@@ -11149,7 +11554,9 @@
       <c r="N208" s="4"/>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>2022</v>
+      </c>
       <c r="B209" s="3">
         <v>7</v>
       </c>
@@ -11185,7 +11592,9 @@
       <c r="N209" s="4"/>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>2022</v>
+      </c>
       <c r="B210" s="3">
         <v>8</v>
       </c>
@@ -11221,7 +11630,9 @@
       <c r="N210" s="4"/>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>2022</v>
+      </c>
       <c r="B211" s="3">
         <v>9</v>
       </c>
@@ -11257,7 +11668,9 @@
       <c r="N211" s="4"/>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>2022</v>
+      </c>
       <c r="B212" s="3">
         <v>10</v>
       </c>
@@ -11293,7 +11706,9 @@
       <c r="N212" s="4"/>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>2022</v>
+      </c>
       <c r="B213" s="3">
         <v>11</v>
       </c>
@@ -11329,7 +11744,9 @@
       <c r="N213" s="4"/>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>2022</v>
+      </c>
       <c r="B214" s="3">
         <v>12</v>
       </c>
@@ -11365,7 +11782,9 @@
       <c r="N214" s="4"/>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1">
+        <v>2022</v>
+      </c>
       <c r="B215" s="3">
         <v>13</v>
       </c>
@@ -11401,7 +11820,9 @@
       <c r="N215" s="4"/>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>2022</v>
+      </c>
       <c r="B216" s="3">
         <v>14</v>
       </c>
@@ -11437,7 +11858,9 @@
       <c r="N216" s="4"/>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>2022</v>
+      </c>
       <c r="B217" s="3">
         <v>15</v>
       </c>
@@ -11473,7 +11896,9 @@
       <c r="N217" s="4"/>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>2022</v>
+      </c>
       <c r="B218" s="3">
         <v>16</v>
       </c>
@@ -11509,7 +11934,9 @@
       <c r="N218" s="4"/>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>2022</v>
+      </c>
       <c r="B219" s="3">
         <v>17</v>
       </c>
@@ -11545,7 +11972,9 @@
       <c r="N219" s="4"/>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>2022</v>
+      </c>
       <c r="B220" s="3">
         <v>18</v>
       </c>
@@ -11581,7 +12010,9 @@
       <c r="N220" s="4"/>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>2022</v>
+      </c>
       <c r="B221" s="3">
         <v>19</v>
       </c>
@@ -11617,7 +12048,9 @@
       <c r="N221" s="4"/>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>2022</v>
+      </c>
       <c r="B222" s="3">
         <v>20</v>
       </c>
@@ -11653,7 +12086,9 @@
       <c r="N222" s="4"/>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>2022</v>
+      </c>
       <c r="B223" s="3">
         <v>21</v>
       </c>
@@ -11689,7 +12124,9 @@
       <c r="N223" s="4"/>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>2022</v>
+      </c>
       <c r="B224" s="3">
         <v>22</v>
       </c>
@@ -11725,7 +12162,9 @@
       <c r="N224" s="4"/>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1">
+        <v>2022</v>
+      </c>
       <c r="B225" s="3">
         <v>23</v>
       </c>
@@ -11761,7 +12200,9 @@
       <c r="N225" s="4"/>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>2022</v>
+      </c>
       <c r="B226" s="3">
         <v>24</v>
       </c>
@@ -11797,7 +12238,9 @@
       <c r="N226" s="4"/>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>2022</v>
+      </c>
       <c r="B227" s="3">
         <v>25</v>
       </c>
@@ -11833,7 +12276,9 @@
       <c r="N227" s="4"/>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1">
+        <v>2022</v>
+      </c>
       <c r="B228" s="3">
         <v>26</v>
       </c>
@@ -11869,7 +12314,9 @@
       <c r="N228" s="4"/>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>2022</v>
+      </c>
       <c r="B229" s="3">
         <v>27</v>
       </c>
@@ -11905,7 +12352,9 @@
       <c r="N229" s="4"/>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1">
+        <v>2022</v>
+      </c>
       <c r="B230" s="3">
         <v>28</v>
       </c>
@@ -11941,7 +12390,9 @@
       <c r="N230" s="4"/>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1">
+        <v>2022</v>
+      </c>
       <c r="B231" s="3">
         <v>29</v>
       </c>
@@ -11977,7 +12428,9 @@
       <c r="N231" s="4"/>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>2022</v>
+      </c>
       <c r="B232" s="3">
         <v>30</v>
       </c>
@@ -12013,7 +12466,9 @@
       <c r="N232" s="4"/>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>2022</v>
+      </c>
       <c r="B233" s="3">
         <v>31</v>
       </c>
@@ -12049,7 +12504,9 @@
       <c r="N233" s="4"/>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>2022</v>
+      </c>
       <c r="B234" s="3">
         <v>32</v>
       </c>
@@ -12085,7 +12542,9 @@
       <c r="N234" s="4"/>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>2022</v>
+      </c>
       <c r="B235" s="3">
         <v>33</v>
       </c>
@@ -12121,7 +12580,9 @@
       <c r="N235" s="4"/>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>2022</v>
+      </c>
       <c r="B236" s="3">
         <v>34</v>
       </c>
@@ -12157,7 +12618,9 @@
       <c r="N236" s="4"/>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>2022</v>
+      </c>
       <c r="B237" s="3">
         <v>35</v>
       </c>
@@ -12193,7 +12656,9 @@
       <c r="N237" s="4"/>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>2022</v>
+      </c>
       <c r="B238" s="3">
         <v>36</v>
       </c>
@@ -12229,7 +12694,9 @@
       <c r="N238" s="4"/>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>2022</v>
+      </c>
       <c r="B239" s="3">
         <v>37</v>
       </c>
@@ -12265,7 +12732,9 @@
       <c r="N239" s="4"/>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>2022</v>
+      </c>
       <c r="B240" s="3">
         <v>38</v>
       </c>
@@ -12301,7 +12770,9 @@
       <c r="N240" s="4"/>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>2022</v>
+      </c>
       <c r="B241" s="3">
         <v>39</v>
       </c>
@@ -12337,7 +12808,9 @@
       <c r="N241" s="4"/>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>2022</v>
+      </c>
       <c r="B242" s="3">
         <v>40</v>
       </c>
@@ -12373,7 +12846,9 @@
       <c r="N242" s="4"/>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>2022</v>
+      </c>
       <c r="B243" s="3">
         <v>41</v>
       </c>
@@ -12409,7 +12884,9 @@
       <c r="N243" s="4"/>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>2022</v>
+      </c>
       <c r="B244" s="3">
         <v>42</v>
       </c>
@@ -12445,7 +12922,9 @@
       <c r="N244" s="4"/>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>2022</v>
+      </c>
       <c r="B245" s="3">
         <v>43</v>
       </c>
@@ -12481,7 +12960,9 @@
       <c r="N245" s="4"/>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>2022</v>
+      </c>
       <c r="B246" s="3">
         <v>44</v>
       </c>
@@ -12517,7 +12998,9 @@
       <c r="N246" s="4"/>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>2022</v>
+      </c>
       <c r="B247" s="3">
         <v>45</v>
       </c>
@@ -12553,7 +13036,9 @@
       <c r="N247" s="4"/>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>2022</v>
+      </c>
       <c r="B248" s="3">
         <v>46</v>
       </c>
@@ -12589,7 +13074,9 @@
       <c r="N248" s="4"/>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>2022</v>
+      </c>
       <c r="B249" s="3">
         <v>47</v>
       </c>
@@ -12625,7 +13112,9 @@
       <c r="N249" s="4"/>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>2022</v>
+      </c>
       <c r="B250" s="3">
         <v>48</v>
       </c>
@@ -12661,7 +13150,9 @@
       <c r="N250" s="4"/>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>2022</v>
+      </c>
       <c r="B251" s="3">
         <v>49</v>
       </c>
@@ -12697,7 +13188,9 @@
       <c r="N251" s="4"/>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>2022</v>
+      </c>
       <c r="B252" s="3">
         <v>50</v>
       </c>
@@ -12733,7 +13226,9 @@
       <c r="N252" s="4"/>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>2022</v>
+      </c>
       <c r="B253" s="3">
         <v>51</v>
       </c>
@@ -12769,7 +13264,9 @@
       <c r="N253" s="4"/>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>2022</v>
+      </c>
       <c r="B254" s="3">
         <v>52</v>
       </c>
@@ -12805,7 +13302,9 @@
       <c r="N254" s="4"/>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>2022</v>
+      </c>
       <c r="B255" s="3">
         <v>53</v>
       </c>
@@ -12841,7 +13340,9 @@
       <c r="N255" s="4"/>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>2022</v>
+      </c>
       <c r="B256" s="3">
         <v>54</v>
       </c>
@@ -12877,7 +13378,9 @@
       <c r="N256" s="4"/>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>2022</v>
+      </c>
       <c r="B257" s="3">
         <v>55</v>
       </c>
@@ -12913,7 +13416,9 @@
       <c r="N257" s="4"/>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>2022</v>
+      </c>
       <c r="B258" s="3">
         <v>56</v>
       </c>
@@ -12949,7 +13454,9 @@
       <c r="N258" s="4"/>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>2022</v>
+      </c>
       <c r="B259" s="3">
         <v>57</v>
       </c>
@@ -12985,7 +13492,9 @@
       <c r="N259" s="4"/>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>2022</v>
+      </c>
       <c r="B260" s="3">
         <v>58</v>
       </c>
@@ -13021,7 +13530,9 @@
       <c r="N260" s="4"/>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>2022</v>
+      </c>
       <c r="B261" s="3">
         <v>59</v>
       </c>
@@ -13057,7 +13568,9 @@
       <c r="N261" s="4"/>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>2022</v>
+      </c>
       <c r="B262" s="3">
         <v>60</v>
       </c>
@@ -13093,7 +13606,9 @@
       <c r="N262" s="4"/>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>2022</v>
+      </c>
       <c r="B263" s="3">
         <v>61</v>
       </c>
@@ -13129,7 +13644,9 @@
       <c r="N263" s="4"/>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>2022</v>
+      </c>
       <c r="B264" s="3">
         <v>62</v>
       </c>
@@ -13165,7 +13682,9 @@
       <c r="N264" s="4"/>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>2022</v>
+      </c>
       <c r="B265" s="3">
         <v>63</v>
       </c>
@@ -13201,7 +13720,9 @@
       <c r="N265" s="4"/>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>2022</v>
+      </c>
       <c r="B266" s="3">
         <v>64</v>
       </c>
@@ -13237,7 +13758,9 @@
       <c r="N266" s="4"/>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>2022</v>
+      </c>
       <c r="B267" s="3">
         <v>65</v>
       </c>
@@ -13273,7 +13796,9 @@
       <c r="N267" s="4"/>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>2022</v>
+      </c>
       <c r="B268" s="3">
         <v>66</v>
       </c>
@@ -13309,7 +13834,9 @@
       <c r="N268" s="4"/>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>2022</v>
+      </c>
       <c r="B269" s="3">
         <v>67</v>
       </c>
@@ -13345,7 +13872,9 @@
       <c r="N269" s="4"/>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>2022</v>
+      </c>
       <c r="B270" s="3">
         <v>68</v>
       </c>
@@ -13381,7 +13910,9 @@
       <c r="N270" s="4"/>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>2022</v>
+      </c>
       <c r="B271" s="3">
         <v>69</v>
       </c>
@@ -13417,7 +13948,9 @@
       <c r="N271" s="4"/>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>2022</v>
+      </c>
       <c r="B272" s="3">
         <v>70</v>
       </c>
@@ -13453,7 +13986,9 @@
       <c r="N272" s="4"/>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>2022</v>
+      </c>
       <c r="B273" s="3">
         <v>71</v>
       </c>
@@ -13489,7 +14024,9 @@
       <c r="N273" s="4"/>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>2022</v>
+      </c>
       <c r="B274" s="3">
         <v>72</v>
       </c>
@@ -13525,7 +14062,9 @@
       <c r="N274" s="4"/>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>2022</v>
+      </c>
       <c r="B275" s="3">
         <v>73</v>
       </c>
@@ -13561,7 +14100,9 @@
       <c r="N275" s="4"/>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>2022</v>
+      </c>
       <c r="B276" s="3">
         <v>74</v>
       </c>
@@ -13597,7 +14138,9 @@
       <c r="N276" s="4"/>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>2022</v>
+      </c>
       <c r="B277" s="3">
         <v>75</v>
       </c>
@@ -13633,7 +14176,9 @@
       <c r="N277" s="4"/>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>2022</v>
+      </c>
       <c r="B278" s="3">
         <v>76</v>
       </c>
@@ -13669,7 +14214,9 @@
       <c r="N278" s="4"/>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>2022</v>
+      </c>
       <c r="B279" s="3">
         <v>77</v>
       </c>
@@ -13705,7 +14252,9 @@
       <c r="N279" s="4"/>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>2022</v>
+      </c>
       <c r="B280" s="3">
         <v>78</v>
       </c>
@@ -13741,7 +14290,9 @@
       <c r="N280" s="4"/>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>2022</v>
+      </c>
       <c r="B281" s="3">
         <v>79</v>
       </c>
@@ -13777,7 +14328,9 @@
       <c r="N281" s="4"/>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>2022</v>
+      </c>
       <c r="B282" s="3">
         <v>80</v>
       </c>
@@ -13813,7 +14366,9 @@
       <c r="N282" s="4"/>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>2022</v>
+      </c>
       <c r="B283" s="3">
         <v>81</v>
       </c>
@@ -13849,7 +14404,9 @@
       <c r="N283" s="4"/>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>2022</v>
+      </c>
       <c r="B284" s="3">
         <v>82</v>
       </c>
@@ -13885,7 +14442,9 @@
       <c r="N284" s="4"/>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>2022</v>
+      </c>
       <c r="B285" s="3">
         <v>83</v>
       </c>
@@ -13921,7 +14480,9 @@
       <c r="N285" s="4"/>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>2022</v>
+      </c>
       <c r="B286" s="3">
         <v>84</v>
       </c>
@@ -13957,7 +14518,9 @@
       <c r="N286" s="4"/>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>2022</v>
+      </c>
       <c r="B287" s="3">
         <v>85</v>
       </c>
@@ -13993,7 +14556,9 @@
       <c r="N287" s="4"/>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>2022</v>
+      </c>
       <c r="B288" s="3">
         <v>86</v>
       </c>
@@ -14029,7 +14594,9 @@
       <c r="N288" s="4"/>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>2022</v>
+      </c>
       <c r="B289" s="3">
         <v>87</v>
       </c>
@@ -14065,7 +14632,9 @@
       <c r="N289" s="4"/>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>2022</v>
+      </c>
       <c r="B290" s="3">
         <v>88</v>
       </c>
@@ -14101,7 +14670,9 @@
       <c r="N290" s="4"/>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>2022</v>
+      </c>
       <c r="B291" s="3">
         <v>89</v>
       </c>
@@ -14137,7 +14708,9 @@
       <c r="N291" s="4"/>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>2022</v>
+      </c>
       <c r="B292" s="3">
         <v>90</v>
       </c>
@@ -14173,7 +14746,9 @@
       <c r="N292" s="4"/>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="1"/>
+      <c r="A293" s="1">
+        <v>2022</v>
+      </c>
       <c r="B293" s="3">
         <v>91</v>
       </c>
@@ -14209,7 +14784,9 @@
       <c r="N293" s="4"/>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>2022</v>
+      </c>
       <c r="B294" s="3">
         <v>92</v>
       </c>
@@ -14245,7 +14822,9 @@
       <c r="N294" s="4"/>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>2022</v>
+      </c>
       <c r="B295" s="3">
         <v>93</v>
       </c>
@@ -14281,7 +14860,9 @@
       <c r="N295" s="4"/>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>2022</v>
+      </c>
       <c r="B296" s="3">
         <v>94</v>
       </c>
@@ -14317,7 +14898,9 @@
       <c r="N296" s="4"/>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>2022</v>
+      </c>
       <c r="B297" s="3">
         <v>95</v>
       </c>
@@ -14353,7 +14936,9 @@
       <c r="N297" s="4"/>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>2022</v>
+      </c>
       <c r="B298" s="3">
         <v>96</v>
       </c>
@@ -14389,7 +14974,9 @@
       <c r="N298" s="4"/>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>2022</v>
+      </c>
       <c r="B299" s="3">
         <v>97</v>
       </c>
@@ -14425,7 +15012,9 @@
       <c r="N299" s="4"/>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>2022</v>
+      </c>
       <c r="B300" s="3">
         <v>98</v>
       </c>
@@ -14461,7 +15050,9 @@
       <c r="N300" s="4"/>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>2022</v>
+      </c>
       <c r="B301" s="3">
         <v>99</v>
       </c>
@@ -14497,7 +15088,9 @@
       <c r="N301" s="4"/>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1">
+        <v>2022</v>
+      </c>
       <c r="B302" s="3">
         <v>100</v>
       </c>
@@ -14533,7 +15126,9 @@
       <c r="N302" s="4"/>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="1"/>
+      <c r="A303" s="1">
+        <v>2022</v>
+      </c>
       <c r="B303" s="3">
         <v>101</v>
       </c>
@@ -14569,7 +15164,9 @@
       <c r="N303" s="4"/>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="1"/>
+      <c r="A304" s="1">
+        <v>2022</v>
+      </c>
       <c r="B304" s="3">
         <v>102</v>
       </c>
@@ -14605,7 +15202,9 @@
       <c r="N304" s="4"/>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="1"/>
+      <c r="A305" s="1">
+        <v>2022</v>
+      </c>
       <c r="B305" s="3">
         <v>103</v>
       </c>
@@ -14641,7 +15240,9 @@
       <c r="N305" s="4"/>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="1"/>
+      <c r="A306" s="1">
+        <v>2022</v>
+      </c>
       <c r="B306" s="3">
         <v>104</v>
       </c>
@@ -14677,7 +15278,9 @@
       <c r="N306" s="4"/>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="1"/>
+      <c r="A307" s="1">
+        <v>2022</v>
+      </c>
       <c r="B307" s="3">
         <v>105</v>
       </c>
@@ -14713,7 +15316,9 @@
       <c r="N307" s="4"/>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="1"/>
+      <c r="A308" s="1">
+        <v>2022</v>
+      </c>
       <c r="B308" s="3">
         <v>106</v>
       </c>
@@ -14749,7 +15354,9 @@
       <c r="N308" s="4"/>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="1"/>
+      <c r="A309" s="1">
+        <v>2022</v>
+      </c>
       <c r="B309" s="3">
         <v>107</v>
       </c>
@@ -14785,7 +15392,9 @@
       <c r="N309" s="4"/>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="1"/>
+      <c r="A310" s="1">
+        <v>2022</v>
+      </c>
       <c r="B310" s="3">
         <v>108</v>
       </c>
@@ -14821,7 +15430,9 @@
       <c r="N310" s="4"/>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="1"/>
+      <c r="A311" s="1">
+        <v>2022</v>
+      </c>
       <c r="B311" s="3">
         <v>109</v>
       </c>
@@ -14857,7 +15468,9 @@
       <c r="N311" s="4"/>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="1"/>
+      <c r="A312" s="1">
+        <v>2022</v>
+      </c>
       <c r="B312" s="3">
         <v>110</v>
       </c>
@@ -14893,7 +15506,9 @@
       <c r="N312" s="4"/>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="1"/>
+      <c r="A313" s="1">
+        <v>2022</v>
+      </c>
       <c r="B313" s="3">
         <v>111</v>
       </c>
@@ -14929,7 +15544,9 @@
       <c r="N313" s="4"/>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>2022</v>
+      </c>
       <c r="B314" s="3">
         <v>112</v>
       </c>
@@ -14965,7 +15582,9 @@
       <c r="N314" s="4"/>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="1"/>
+      <c r="A315" s="1">
+        <v>2022</v>
+      </c>
       <c r="B315" s="3">
         <v>113</v>
       </c>
@@ -15001,7 +15620,9 @@
       <c r="N315" s="4"/>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="1"/>
+      <c r="A316" s="1">
+        <v>2022</v>
+      </c>
       <c r="B316" s="3">
         <v>114</v>
       </c>
@@ -15037,7 +15658,9 @@
       <c r="N316" s="4"/>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="1"/>
+      <c r="A317" s="1">
+        <v>2022</v>
+      </c>
       <c r="B317" s="3">
         <v>115</v>
       </c>
@@ -15073,7 +15696,9 @@
       <c r="N317" s="4"/>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="1"/>
+      <c r="A318" s="1">
+        <v>2022</v>
+      </c>
       <c r="B318" s="3">
         <v>116</v>
       </c>
@@ -15109,7 +15734,9 @@
       <c r="N318" s="4"/>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1">
+        <v>2022</v>
+      </c>
       <c r="B319" s="3">
         <v>117</v>
       </c>
@@ -15145,7 +15772,9 @@
       <c r="N319" s="4"/>
     </row>
     <row r="320" spans="1:14">
-      <c r="A320" s="1"/>
+      <c r="A320" s="1">
+        <v>2022</v>
+      </c>
       <c r="B320" s="3">
         <v>118</v>
       </c>
@@ -15181,7 +15810,9 @@
       <c r="N320" s="4"/>
     </row>
     <row r="321" spans="1:14">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1">
+        <v>2022</v>
+      </c>
       <c r="B321" s="3">
         <v>119</v>
       </c>
@@ -15217,7 +15848,9 @@
       <c r="N321" s="4"/>
     </row>
     <row r="322" spans="1:14">
-      <c r="A322" s="1"/>
+      <c r="A322" s="1">
+        <v>2022</v>
+      </c>
       <c r="B322" s="3">
         <v>120</v>
       </c>
@@ -15253,7 +15886,9 @@
       <c r="N322" s="4"/>
     </row>
     <row r="323" spans="1:14">
-      <c r="A323" s="1"/>
+      <c r="A323" s="1">
+        <v>2022</v>
+      </c>
       <c r="B323" s="3">
         <v>121</v>
       </c>
@@ -15289,7 +15924,9 @@
       <c r="N323" s="4"/>
     </row>
     <row r="324" spans="1:14">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>2022</v>
+      </c>
       <c r="B324" s="3">
         <v>122</v>
       </c>
@@ -15325,7 +15962,9 @@
       <c r="N324" s="4"/>
     </row>
     <row r="325" spans="1:14">
-      <c r="A325" s="1"/>
+      <c r="A325" s="1">
+        <v>2022</v>
+      </c>
       <c r="B325" s="3">
         <v>123</v>
       </c>
@@ -15361,7 +16000,9 @@
       <c r="N325" s="4"/>
     </row>
     <row r="326" spans="1:14">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1">
+        <v>2022</v>
+      </c>
       <c r="B326" s="3">
         <v>124</v>
       </c>
@@ -15397,7 +16038,9 @@
       <c r="N326" s="4"/>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="1"/>
+      <c r="A327" s="1">
+        <v>2022</v>
+      </c>
       <c r="B327" s="3">
         <v>125</v>
       </c>
@@ -15433,7 +16076,9 @@
       <c r="N327" s="4"/>
     </row>
     <row r="328" spans="1:14">
-      <c r="A328" s="1"/>
+      <c r="A328" s="1">
+        <v>2022</v>
+      </c>
       <c r="B328" s="3">
         <v>126</v>
       </c>
@@ -15469,7 +16114,9 @@
       <c r="N328" s="4"/>
     </row>
     <row r="329" spans="1:14">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>2022</v>
+      </c>
       <c r="B329" s="3">
         <v>127</v>
       </c>
@@ -15505,7 +16152,9 @@
       <c r="N329" s="4"/>
     </row>
     <row r="330" spans="1:14">
-      <c r="A330" s="1"/>
+      <c r="A330" s="1">
+        <v>2022</v>
+      </c>
       <c r="B330" s="3">
         <v>128</v>
       </c>
@@ -15541,7 +16190,9 @@
       <c r="N330" s="4"/>
     </row>
     <row r="331" spans="1:14">
-      <c r="A331" s="1"/>
+      <c r="A331" s="1">
+        <v>2022</v>
+      </c>
       <c r="B331" s="3">
         <v>129</v>
       </c>
@@ -15577,7 +16228,9 @@
       <c r="N331" s="4"/>
     </row>
     <row r="332" spans="1:14">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1">
+        <v>2022</v>
+      </c>
       <c r="B332" s="3">
         <v>130</v>
       </c>
@@ -15613,7 +16266,9 @@
       <c r="N332" s="4"/>
     </row>
     <row r="333" spans="1:14">
-      <c r="A333" s="1"/>
+      <c r="A333" s="1">
+        <v>2022</v>
+      </c>
       <c r="B333" s="3">
         <v>131</v>
       </c>
@@ -15649,7 +16304,9 @@
       <c r="N333" s="4"/>
     </row>
     <row r="334" spans="1:14">
-      <c r="A334" s="1"/>
+      <c r="A334" s="1">
+        <v>2022</v>
+      </c>
       <c r="B334" s="3">
         <v>132</v>
       </c>
@@ -15685,7 +16342,9 @@
       <c r="N334" s="4"/>
     </row>
     <row r="335" spans="1:14">
-      <c r="A335" s="1"/>
+      <c r="A335" s="1">
+        <v>2022</v>
+      </c>
       <c r="B335" s="3">
         <v>133</v>
       </c>
@@ -15721,7 +16380,9 @@
       <c r="N335" s="4"/>
     </row>
     <row r="336" spans="1:14">
-      <c r="A336" s="1"/>
+      <c r="A336" s="1">
+        <v>2022</v>
+      </c>
       <c r="B336" s="3">
         <v>134</v>
       </c>
@@ -15757,7 +16418,9 @@
       <c r="N336" s="4"/>
     </row>
     <row r="337" spans="1:14">
-      <c r="A337" s="1"/>
+      <c r="A337" s="1">
+        <v>2022</v>
+      </c>
       <c r="B337" s="3">
         <v>135</v>
       </c>
@@ -15793,7 +16456,9 @@
       <c r="N337" s="4"/>
     </row>
     <row r="338" spans="1:14">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>2022</v>
+      </c>
       <c r="B338" s="3">
         <v>136</v>
       </c>
@@ -15829,7 +16494,9 @@
       <c r="N338" s="4"/>
     </row>
     <row r="339" spans="1:14">
-      <c r="A339" s="1"/>
+      <c r="A339" s="1">
+        <v>2022</v>
+      </c>
       <c r="B339" s="3">
         <v>137</v>
       </c>
@@ -15865,7 +16532,9 @@
       <c r="N339" s="4"/>
     </row>
     <row r="340" spans="1:14">
-      <c r="A340" s="1"/>
+      <c r="A340" s="1">
+        <v>2022</v>
+      </c>
       <c r="B340" s="3">
         <v>138</v>
       </c>
@@ -15901,7 +16570,9 @@
       <c r="N340" s="4"/>
     </row>
     <row r="341" spans="1:14">
-      <c r="A341" s="1"/>
+      <c r="A341" s="1">
+        <v>2022</v>
+      </c>
       <c r="B341" s="3">
         <v>139</v>
       </c>
@@ -15937,7 +16608,9 @@
       <c r="N341" s="4"/>
     </row>
     <row r="342" spans="1:14">
-      <c r="A342" s="1"/>
+      <c r="A342" s="1">
+        <v>2022</v>
+      </c>
       <c r="B342" s="3">
         <v>140</v>
       </c>
@@ -15973,7 +16646,9 @@
       <c r="N342" s="4"/>
     </row>
     <row r="343" spans="1:14">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1">
+        <v>2022</v>
+      </c>
       <c r="B343" s="3">
         <v>141</v>
       </c>
@@ -16009,7 +16684,9 @@
       <c r="N343" s="4"/>
     </row>
     <row r="344" spans="1:14">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>2022</v>
+      </c>
       <c r="B344" s="3">
         <v>142</v>
       </c>
@@ -16045,7 +16722,9 @@
       <c r="N344" s="4"/>
     </row>
     <row r="345" spans="1:14">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>2022</v>
+      </c>
       <c r="B345" s="3">
         <v>143</v>
       </c>
@@ -16081,7 +16760,9 @@
       <c r="N345" s="4"/>
     </row>
     <row r="346" spans="1:14">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>2022</v>
+      </c>
       <c r="B346" s="3">
         <v>144</v>
       </c>
@@ -16117,7 +16798,9 @@
       <c r="N346" s="4"/>
     </row>
     <row r="347" spans="1:14">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1">
+        <v>2022</v>
+      </c>
       <c r="B347" s="3">
         <v>145</v>
       </c>
@@ -16153,7 +16836,9 @@
       <c r="N347" s="4"/>
     </row>
     <row r="348" spans="1:14">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1">
+        <v>2022</v>
+      </c>
       <c r="B348" s="3">
         <v>146</v>
       </c>
@@ -16189,7 +16874,9 @@
       <c r="N348" s="4"/>
     </row>
     <row r="349" spans="1:14">
-      <c r="A349" s="1"/>
+      <c r="A349" s="1">
+        <v>2022</v>
+      </c>
       <c r="B349" s="3">
         <v>147</v>
       </c>
@@ -16225,7 +16912,9 @@
       <c r="N349" s="4"/>
     </row>
     <row r="350" spans="1:14">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1">
+        <v>2022</v>
+      </c>
       <c r="B350" s="3">
         <v>148</v>
       </c>
@@ -16261,7 +16950,9 @@
       <c r="N350" s="4"/>
     </row>
     <row r="351" spans="1:14">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>2022</v>
+      </c>
       <c r="B351" s="3">
         <v>149</v>
       </c>
@@ -16297,7 +16988,9 @@
       <c r="N351" s="4"/>
     </row>
     <row r="352" spans="1:14">
-      <c r="A352" s="1"/>
+      <c r="A352" s="1">
+        <v>2022</v>
+      </c>
       <c r="B352" s="3">
         <v>150</v>
       </c>
@@ -16333,7 +17026,9 @@
       <c r="N352" s="4"/>
     </row>
     <row r="353" spans="1:14">
-      <c r="A353" s="1"/>
+      <c r="A353" s="1">
+        <v>2022</v>
+      </c>
       <c r="B353" s="3">
         <v>151</v>
       </c>
@@ -16369,7 +17064,9 @@
       <c r="N353" s="4"/>
     </row>
     <row r="354" spans="1:14">
-      <c r="A354" s="1"/>
+      <c r="A354" s="1">
+        <v>2022</v>
+      </c>
       <c r="B354" s="3">
         <v>152</v>
       </c>
@@ -16443,7 +17140,9 @@
       <c r="N355" s="4"/>
     </row>
     <row r="356" spans="1:14">
-      <c r="A356" s="1"/>
+      <c r="A356" s="1">
+        <v>2021</v>
+      </c>
       <c r="B356" s="3">
         <v>1</v>
       </c>
@@ -16479,7 +17178,9 @@
       <c r="N356" s="4"/>
     </row>
     <row r="357" spans="1:14">
-      <c r="A357" s="1"/>
+      <c r="A357" s="1">
+        <v>2021</v>
+      </c>
       <c r="B357" s="3">
         <v>2</v>
       </c>
@@ -16515,7 +17216,9 @@
       <c r="N357" s="4"/>
     </row>
     <row r="358" spans="1:14">
-      <c r="A358" s="1"/>
+      <c r="A358" s="1">
+        <v>2021</v>
+      </c>
       <c r="B358" s="3">
         <v>3</v>
       </c>
@@ -16551,7 +17254,9 @@
       <c r="N358" s="4"/>
     </row>
     <row r="359" spans="1:14">
-      <c r="A359" s="1"/>
+      <c r="A359" s="1">
+        <v>2021</v>
+      </c>
       <c r="B359" s="3">
         <v>4</v>
       </c>
@@ -16587,7 +17292,9 @@
       <c r="N359" s="4"/>
     </row>
     <row r="360" spans="1:14">
-      <c r="A360" s="1"/>
+      <c r="A360" s="1">
+        <v>2021</v>
+      </c>
       <c r="B360" s="3">
         <v>5</v>
       </c>
@@ -16623,7 +17330,9 @@
       <c r="N360" s="4"/>
     </row>
     <row r="361" spans="1:14">
-      <c r="A361" s="1"/>
+      <c r="A361" s="1">
+        <v>2021</v>
+      </c>
       <c r="B361" s="3">
         <v>6</v>
       </c>
@@ -16659,7 +17368,9 @@
       <c r="N361" s="4"/>
     </row>
     <row r="362" spans="1:14">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1">
+        <v>2021</v>
+      </c>
       <c r="B362" s="3">
         <v>7</v>
       </c>
@@ -16695,7 +17406,9 @@
       <c r="N362" s="4"/>
     </row>
     <row r="363" spans="1:14">
-      <c r="A363" s="1"/>
+      <c r="A363" s="1">
+        <v>2021</v>
+      </c>
       <c r="B363" s="3">
         <v>8</v>
       </c>
@@ -16731,7 +17444,9 @@
       <c r="N363" s="4"/>
     </row>
     <row r="364" spans="1:14">
-      <c r="A364" s="1"/>
+      <c r="A364" s="1">
+        <v>2021</v>
+      </c>
       <c r="B364" s="3">
         <v>9</v>
       </c>
@@ -16767,7 +17482,9 @@
       <c r="N364" s="4"/>
     </row>
     <row r="365" spans="1:14">
-      <c r="A365" s="1"/>
+      <c r="A365" s="1">
+        <v>2021</v>
+      </c>
       <c r="B365" s="3">
         <v>10</v>
       </c>
@@ -16803,7 +17520,9 @@
       <c r="N365" s="4"/>
     </row>
     <row r="366" spans="1:14">
-      <c r="A366" s="1"/>
+      <c r="A366" s="1">
+        <v>2021</v>
+      </c>
       <c r="B366" s="3">
         <v>11</v>
       </c>
@@ -16839,7 +17558,9 @@
       <c r="N366" s="4"/>
     </row>
     <row r="367" spans="1:14">
-      <c r="A367" s="1"/>
+      <c r="A367" s="1">
+        <v>2021</v>
+      </c>
       <c r="B367" s="3">
         <v>12</v>
       </c>
@@ -16875,7 +17596,9 @@
       <c r="N367" s="4"/>
     </row>
     <row r="368" spans="1:14">
-      <c r="A368" s="1"/>
+      <c r="A368" s="1">
+        <v>2021</v>
+      </c>
       <c r="B368" s="3">
         <v>13</v>
       </c>
@@ -16911,7 +17634,9 @@
       <c r="N368" s="4"/>
     </row>
     <row r="369" spans="1:14">
-      <c r="A369" s="1"/>
+      <c r="A369" s="1">
+        <v>2021</v>
+      </c>
       <c r="B369" s="3">
         <v>14</v>
       </c>
@@ -16947,7 +17672,9 @@
       <c r="N369" s="4"/>
     </row>
     <row r="370" spans="1:14">
-      <c r="A370" s="1"/>
+      <c r="A370" s="1">
+        <v>2021</v>
+      </c>
       <c r="B370" s="3">
         <v>15</v>
       </c>
@@ -16983,7 +17710,9 @@
       <c r="N370" s="4"/>
     </row>
     <row r="371" spans="1:14">
-      <c r="A371" s="1"/>
+      <c r="A371" s="1">
+        <v>2021</v>
+      </c>
       <c r="B371" s="3">
         <v>16</v>
       </c>
@@ -17019,7 +17748,9 @@
       <c r="N371" s="4"/>
     </row>
     <row r="372" spans="1:14">
-      <c r="A372" s="1"/>
+      <c r="A372" s="1">
+        <v>2021</v>
+      </c>
       <c r="B372" s="3">
         <v>17</v>
       </c>
@@ -17055,7 +17786,9 @@
       <c r="N372" s="4"/>
     </row>
     <row r="373" spans="1:14">
-      <c r="A373" s="1"/>
+      <c r="A373" s="1">
+        <v>2021</v>
+      </c>
       <c r="B373" s="3">
         <v>18</v>
       </c>
@@ -17091,7 +17824,9 @@
       <c r="N373" s="4"/>
     </row>
     <row r="374" spans="1:14">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1">
+        <v>2021</v>
+      </c>
       <c r="B374" s="3">
         <v>19</v>
       </c>
@@ -17127,7 +17862,9 @@
       <c r="N374" s="4"/>
     </row>
     <row r="375" spans="1:14">
-      <c r="A375" s="1"/>
+      <c r="A375" s="1">
+        <v>2021</v>
+      </c>
       <c r="B375" s="3">
         <v>20</v>
       </c>
@@ -17163,7 +17900,9 @@
       <c r="N375" s="4"/>
     </row>
     <row r="376" spans="1:14">
-      <c r="A376" s="1"/>
+      <c r="A376" s="1">
+        <v>2021</v>
+      </c>
       <c r="B376" s="3">
         <v>21</v>
       </c>
@@ -17199,7 +17938,9 @@
       <c r="N376" s="4"/>
     </row>
     <row r="377" spans="1:14">
-      <c r="A377" s="1"/>
+      <c r="A377" s="1">
+        <v>2021</v>
+      </c>
       <c r="B377" s="3">
         <v>22</v>
       </c>
@@ -17235,7 +17976,9 @@
       <c r="N377" s="4"/>
     </row>
     <row r="378" spans="1:14">
-      <c r="A378" s="1"/>
+      <c r="A378" s="1">
+        <v>2021</v>
+      </c>
       <c r="B378" s="3">
         <v>23</v>
       </c>
@@ -17271,7 +18014,9 @@
       <c r="N378" s="4"/>
     </row>
     <row r="379" spans="1:14">
-      <c r="A379" s="1"/>
+      <c r="A379" s="1">
+        <v>2021</v>
+      </c>
       <c r="B379" s="3">
         <v>24</v>
       </c>
@@ -17307,7 +18052,9 @@
       <c r="N379" s="4"/>
     </row>
     <row r="380" spans="1:14">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1">
+        <v>2021</v>
+      </c>
       <c r="B380" s="3">
         <v>25</v>
       </c>
@@ -17343,7 +18090,9 @@
       <c r="N380" s="4"/>
     </row>
     <row r="381" spans="1:14">
-      <c r="A381" s="1"/>
+      <c r="A381" s="1">
+        <v>2021</v>
+      </c>
       <c r="B381" s="3">
         <v>26</v>
       </c>
@@ -17379,7 +18128,9 @@
       <c r="N381" s="4"/>
     </row>
     <row r="382" spans="1:14">
-      <c r="A382" s="1"/>
+      <c r="A382" s="1">
+        <v>2021</v>
+      </c>
       <c r="B382" s="3">
         <v>27</v>
       </c>
@@ -17415,7 +18166,9 @@
       <c r="N382" s="4"/>
     </row>
     <row r="383" spans="1:14">
-      <c r="A383" s="1"/>
+      <c r="A383" s="1">
+        <v>2021</v>
+      </c>
       <c r="B383" s="3">
         <v>28</v>
       </c>
@@ -17451,7 +18204,9 @@
       <c r="N383" s="4"/>
     </row>
     <row r="384" spans="1:14">
-      <c r="A384" s="1"/>
+      <c r="A384" s="1">
+        <v>2021</v>
+      </c>
       <c r="B384" s="3">
         <v>29</v>
       </c>
@@ -17487,7 +18242,9 @@
       <c r="N384" s="4"/>
     </row>
     <row r="385" spans="1:14">
-      <c r="A385" s="1"/>
+      <c r="A385" s="1">
+        <v>2021</v>
+      </c>
       <c r="B385" s="3">
         <v>30</v>
       </c>
@@ -17523,7 +18280,9 @@
       <c r="N385" s="4"/>
     </row>
     <row r="386" spans="1:14">
-      <c r="A386" s="1"/>
+      <c r="A386" s="1">
+        <v>2021</v>
+      </c>
       <c r="B386" s="3">
         <v>31</v>
       </c>
@@ -17559,7 +18318,9 @@
       <c r="N386" s="4"/>
     </row>
     <row r="387" spans="1:14">
-      <c r="A387" s="1"/>
+      <c r="A387" s="1">
+        <v>2021</v>
+      </c>
       <c r="B387" s="3">
         <v>32</v>
       </c>
@@ -17595,7 +18356,9 @@
       <c r="N387" s="4"/>
     </row>
     <row r="388" spans="1:14">
-      <c r="A388" s="1"/>
+      <c r="A388" s="1">
+        <v>2021</v>
+      </c>
       <c r="B388" s="3">
         <v>33</v>
       </c>
@@ -17631,7 +18394,9 @@
       <c r="N388" s="4"/>
     </row>
     <row r="389" spans="1:14">
-      <c r="A389" s="1"/>
+      <c r="A389" s="1">
+        <v>2021</v>
+      </c>
       <c r="B389" s="3">
         <v>34</v>
       </c>
@@ -17667,7 +18432,9 @@
       <c r="N389" s="4"/>
     </row>
     <row r="390" spans="1:14">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>2021</v>
+      </c>
       <c r="B390" s="3">
         <v>35</v>
       </c>
@@ -17703,7 +18470,9 @@
       <c r="N390" s="4"/>
     </row>
     <row r="391" spans="1:14">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1">
+        <v>2021</v>
+      </c>
       <c r="B391" s="3">
         <v>36</v>
       </c>
@@ -17739,7 +18508,9 @@
       <c r="N391" s="4"/>
     </row>
     <row r="392" spans="1:14">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>2021</v>
+      </c>
       <c r="B392" s="3">
         <v>37</v>
       </c>
@@ -17775,7 +18546,9 @@
       <c r="N392" s="4"/>
     </row>
     <row r="393" spans="1:14">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>2021</v>
+      </c>
       <c r="B393" s="3">
         <v>38</v>
       </c>
@@ -17811,7 +18584,9 @@
       <c r="N393" s="4"/>
     </row>
     <row r="394" spans="1:14">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>2021</v>
+      </c>
       <c r="B394" s="3">
         <v>39</v>
       </c>
@@ -17847,7 +18622,9 @@
       <c r="N394" s="4"/>
     </row>
     <row r="395" spans="1:14">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>2021</v>
+      </c>
       <c r="B395" s="3">
         <v>40</v>
       </c>
@@ -17883,7 +18660,9 @@
       <c r="N395" s="4"/>
     </row>
     <row r="396" spans="1:14">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>2021</v>
+      </c>
       <c r="B396" s="3">
         <v>41</v>
       </c>
@@ -17919,7 +18698,9 @@
       <c r="N396" s="4"/>
     </row>
     <row r="397" spans="1:14">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>2021</v>
+      </c>
       <c r="B397" s="3">
         <v>42</v>
       </c>
@@ -17955,7 +18736,9 @@
       <c r="N397" s="4"/>
     </row>
     <row r="398" spans="1:14">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>2021</v>
+      </c>
       <c r="B398" s="3">
         <v>43</v>
       </c>
@@ -17991,7 +18774,9 @@
       <c r="N398" s="4"/>
     </row>
     <row r="399" spans="1:14">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>2021</v>
+      </c>
       <c r="B399" s="3">
         <v>44</v>
       </c>
@@ -18027,7 +18812,9 @@
       <c r="N399" s="4"/>
     </row>
     <row r="400" spans="1:14">
-      <c r="A400" s="1"/>
+      <c r="A400" s="1">
+        <v>2021</v>
+      </c>
       <c r="B400" s="3">
         <v>45</v>
       </c>
@@ -18063,7 +18850,9 @@
       <c r="N400" s="4"/>
     </row>
     <row r="401" spans="1:14">
-      <c r="A401" s="1"/>
+      <c r="A401" s="1">
+        <v>2021</v>
+      </c>
       <c r="B401" s="3">
         <v>46</v>
       </c>
@@ -18099,7 +18888,9 @@
       <c r="N401" s="4"/>
     </row>
     <row r="402" spans="1:14">
-      <c r="A402" s="1"/>
+      <c r="A402" s="1">
+        <v>2021</v>
+      </c>
       <c r="B402" s="3">
         <v>47</v>
       </c>
@@ -18135,7 +18926,9 @@
       <c r="N402" s="4"/>
     </row>
     <row r="403" spans="1:14">
-      <c r="A403" s="1"/>
+      <c r="A403" s="1">
+        <v>2021</v>
+      </c>
       <c r="B403" s="3">
         <v>48</v>
       </c>
@@ -18171,7 +18964,9 @@
       <c r="N403" s="4"/>
     </row>
     <row r="404" spans="1:14">
-      <c r="A404" s="1"/>
+      <c r="A404" s="1">
+        <v>2021</v>
+      </c>
       <c r="B404" s="3">
         <v>49</v>
       </c>
@@ -18207,7 +19002,9 @@
       <c r="N404" s="4"/>
     </row>
     <row r="405" spans="1:14">
-      <c r="A405" s="1"/>
+      <c r="A405" s="1">
+        <v>2021</v>
+      </c>
       <c r="B405" s="3">
         <v>50</v>
       </c>
@@ -18243,7 +19040,9 @@
       <c r="N405" s="4"/>
     </row>
     <row r="406" spans="1:14">
-      <c r="A406" s="1"/>
+      <c r="A406" s="1">
+        <v>2021</v>
+      </c>
       <c r="B406" s="3">
         <v>51</v>
       </c>
@@ -18279,7 +19078,9 @@
       <c r="N406" s="4"/>
     </row>
     <row r="407" spans="1:14">
-      <c r="A407" s="1"/>
+      <c r="A407" s="1">
+        <v>2021</v>
+      </c>
       <c r="B407" s="3">
         <v>52</v>
       </c>
@@ -18315,7 +19116,9 @@
       <c r="N407" s="4"/>
     </row>
     <row r="408" spans="1:14">
-      <c r="A408" s="1"/>
+      <c r="A408" s="1">
+        <v>2021</v>
+      </c>
       <c r="B408" s="3">
         <v>53</v>
       </c>
@@ -18351,7 +19154,9 @@
       <c r="N408" s="4"/>
     </row>
     <row r="409" spans="1:14">
-      <c r="A409" s="1"/>
+      <c r="A409" s="1">
+        <v>2021</v>
+      </c>
       <c r="B409" s="3">
         <v>54</v>
       </c>
@@ -18387,7 +19192,9 @@
       <c r="N409" s="4"/>
     </row>
     <row r="410" spans="1:14">
-      <c r="A410" s="1"/>
+      <c r="A410" s="1">
+        <v>2021</v>
+      </c>
       <c r="B410" s="3">
         <v>55</v>
       </c>
@@ -18423,7 +19230,9 @@
       <c r="N410" s="4"/>
     </row>
     <row r="411" spans="1:14">
-      <c r="A411" s="1"/>
+      <c r="A411" s="1">
+        <v>2021</v>
+      </c>
       <c r="B411" s="3">
         <v>56</v>
       </c>
@@ -18459,7 +19268,9 @@
       <c r="N411" s="4"/>
     </row>
     <row r="412" spans="1:14">
-      <c r="A412" s="1"/>
+      <c r="A412" s="1">
+        <v>2021</v>
+      </c>
       <c r="B412" s="3">
         <v>57</v>
       </c>
@@ -18495,7 +19306,9 @@
       <c r="N412" s="4"/>
     </row>
     <row r="413" spans="1:14">
-      <c r="A413" s="1"/>
+      <c r="A413" s="1">
+        <v>2021</v>
+      </c>
       <c r="B413" s="3">
         <v>58</v>
       </c>
@@ -18531,7 +19344,9 @@
       <c r="N413" s="4"/>
     </row>
     <row r="414" spans="1:14">
-      <c r="A414" s="1"/>
+      <c r="A414" s="1">
+        <v>2021</v>
+      </c>
       <c r="B414" s="3">
         <v>59</v>
       </c>
@@ -18567,7 +19382,9 @@
       <c r="N414" s="4"/>
     </row>
     <row r="415" spans="1:14">
-      <c r="A415" s="1"/>
+      <c r="A415" s="1">
+        <v>2021</v>
+      </c>
       <c r="B415" s="3">
         <v>60</v>
       </c>
@@ -18603,7 +19420,9 @@
       <c r="N415" s="4"/>
     </row>
     <row r="416" spans="1:14">
-      <c r="A416" s="1"/>
+      <c r="A416" s="1">
+        <v>2021</v>
+      </c>
       <c r="B416" s="3">
         <v>61</v>
       </c>
@@ -18639,7 +19458,9 @@
       <c r="N416" s="4"/>
     </row>
     <row r="417" spans="1:14">
-      <c r="A417" s="1"/>
+      <c r="A417" s="1">
+        <v>2021</v>
+      </c>
       <c r="B417" s="3">
         <v>62</v>
       </c>
@@ -18675,7 +19496,9 @@
       <c r="N417" s="4"/>
     </row>
     <row r="418" spans="1:14">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1">
+        <v>2021</v>
+      </c>
       <c r="B418" s="3">
         <v>63</v>
       </c>
@@ -18711,7 +19534,9 @@
       <c r="N418" s="4"/>
     </row>
     <row r="419" spans="1:14">
-      <c r="A419" s="1"/>
+      <c r="A419" s="1">
+        <v>2021</v>
+      </c>
       <c r="B419" s="3">
         <v>64</v>
       </c>
@@ -18747,7 +19572,9 @@
       <c r="N419" s="4"/>
     </row>
     <row r="420" spans="1:14">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1">
+        <v>2021</v>
+      </c>
       <c r="B420" s="3">
         <v>65</v>
       </c>
@@ -18783,7 +19610,9 @@
       <c r="N420" s="4"/>
     </row>
     <row r="421" spans="1:14">
-      <c r="A421" s="1"/>
+      <c r="A421" s="1">
+        <v>2021</v>
+      </c>
       <c r="B421" s="3">
         <v>66</v>
       </c>
@@ -18819,7 +19648,9 @@
       <c r="N421" s="4"/>
     </row>
     <row r="422" spans="1:14">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>2021</v>
+      </c>
       <c r="B422" s="3">
         <v>67</v>
       </c>
@@ -18855,7 +19686,9 @@
       <c r="N422" s="4"/>
     </row>
     <row r="423" spans="1:14">
-      <c r="A423" s="1"/>
+      <c r="A423" s="1">
+        <v>2021</v>
+      </c>
       <c r="B423" s="3">
         <v>68</v>
       </c>
@@ -18891,7 +19724,9 @@
       <c r="N423" s="4"/>
     </row>
     <row r="424" spans="1:14">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1">
+        <v>2021</v>
+      </c>
       <c r="B424" s="3">
         <v>69</v>
       </c>
@@ -18927,7 +19762,9 @@
       <c r="N424" s="4"/>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="1"/>
+      <c r="A425" s="1">
+        <v>2021</v>
+      </c>
       <c r="B425" s="3">
         <v>70</v>
       </c>
@@ -18963,7 +19800,9 @@
       <c r="N425" s="4"/>
     </row>
     <row r="426" spans="1:14">
-      <c r="A426" s="1"/>
+      <c r="A426" s="1">
+        <v>2021</v>
+      </c>
       <c r="B426" s="3">
         <v>71</v>
       </c>
@@ -18999,7 +19838,9 @@
       <c r="N426" s="4"/>
     </row>
     <row r="427" spans="1:14">
-      <c r="A427" s="1"/>
+      <c r="A427" s="1">
+        <v>2021</v>
+      </c>
       <c r="B427" s="3">
         <v>72</v>
       </c>
@@ -19035,7 +19876,9 @@
       <c r="N427" s="4"/>
     </row>
     <row r="428" spans="1:14">
-      <c r="A428" s="1"/>
+      <c r="A428" s="1">
+        <v>2021</v>
+      </c>
       <c r="B428" s="3">
         <v>73</v>
       </c>
@@ -19071,7 +19914,9 @@
       <c r="N428" s="4"/>
     </row>
     <row r="429" spans="1:14">
-      <c r="A429" s="1"/>
+      <c r="A429" s="1">
+        <v>2021</v>
+      </c>
       <c r="B429" s="3">
         <v>74</v>
       </c>
@@ -19107,7 +19952,9 @@
       <c r="N429" s="4"/>
     </row>
     <row r="430" spans="1:14">
-      <c r="A430" s="1"/>
+      <c r="A430" s="1">
+        <v>2021</v>
+      </c>
       <c r="B430" s="3">
         <v>75</v>
       </c>
@@ -19143,7 +19990,9 @@
       <c r="N430" s="4"/>
     </row>
     <row r="431" spans="1:14">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1">
+        <v>2021</v>
+      </c>
       <c r="B431" s="3">
         <v>76</v>
       </c>
@@ -19179,7 +20028,9 @@
       <c r="N431" s="4"/>
     </row>
     <row r="432" spans="1:14">
-      <c r="A432" s="1"/>
+      <c r="A432" s="1">
+        <v>2021</v>
+      </c>
       <c r="B432" s="3">
         <v>77</v>
       </c>
@@ -19215,7 +20066,9 @@
       <c r="N432" s="4"/>
     </row>
     <row r="433" spans="1:14">
-      <c r="A433" s="1"/>
+      <c r="A433" s="1">
+        <v>2021</v>
+      </c>
       <c r="B433" s="3">
         <v>78</v>
       </c>
@@ -19251,7 +20104,9 @@
       <c r="N433" s="4"/>
     </row>
     <row r="434" spans="1:14">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1">
+        <v>2021</v>
+      </c>
       <c r="B434" s="3">
         <v>79</v>
       </c>
@@ -19287,7 +20142,9 @@
       <c r="N434" s="4"/>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>2021</v>
+      </c>
       <c r="B435" s="3">
         <v>80</v>
       </c>
@@ -19323,7 +20180,9 @@
       <c r="N435" s="4"/>
     </row>
     <row r="436" spans="1:14">
-      <c r="A436" s="1"/>
+      <c r="A436" s="1">
+        <v>2021</v>
+      </c>
       <c r="B436" s="3">
         <v>81</v>
       </c>
@@ -19359,7 +20218,9 @@
       <c r="N436" s="4"/>
     </row>
     <row r="437" spans="1:14">
-      <c r="A437" s="1"/>
+      <c r="A437" s="1">
+        <v>2021</v>
+      </c>
       <c r="B437" s="3">
         <v>82</v>
       </c>
@@ -19395,7 +20256,9 @@
       <c r="N437" s="4"/>
     </row>
     <row r="438" spans="1:14">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>2021</v>
+      </c>
       <c r="B438" s="3">
         <v>83</v>
       </c>
@@ -19431,7 +20294,9 @@
       <c r="N438" s="4"/>
     </row>
     <row r="439" spans="1:14">
-      <c r="A439" s="1"/>
+      <c r="A439" s="1">
+        <v>2021</v>
+      </c>
       <c r="B439" s="3">
         <v>84</v>
       </c>
@@ -19467,7 +20332,9 @@
       <c r="N439" s="4"/>
     </row>
     <row r="440" spans="1:14">
-      <c r="A440" s="1"/>
+      <c r="A440" s="1">
+        <v>2021</v>
+      </c>
       <c r="B440" s="3">
         <v>85</v>
       </c>
@@ -19503,7 +20370,9 @@
       <c r="N440" s="4"/>
     </row>
     <row r="441" spans="1:14">
-      <c r="A441" s="1"/>
+      <c r="A441" s="1">
+        <v>2021</v>
+      </c>
       <c r="B441" s="3">
         <v>86</v>
       </c>
@@ -19539,7 +20408,9 @@
       <c r="N441" s="4"/>
     </row>
     <row r="442" spans="1:14">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1">
+        <v>2021</v>
+      </c>
       <c r="B442" s="3">
         <v>87</v>
       </c>
@@ -19575,7 +20446,9 @@
       <c r="N442" s="4"/>
     </row>
     <row r="443" spans="1:14">
-      <c r="A443" s="1"/>
+      <c r="A443" s="1">
+        <v>2021</v>
+      </c>
       <c r="B443" s="3">
         <v>88</v>
       </c>
@@ -19611,7 +20484,9 @@
       <c r="N443" s="4"/>
     </row>
     <row r="444" spans="1:14">
-      <c r="A444" s="1"/>
+      <c r="A444" s="1">
+        <v>2021</v>
+      </c>
       <c r="B444" s="3">
         <v>89</v>
       </c>
@@ -19647,7 +20522,9 @@
       <c r="N444" s="4"/>
     </row>
     <row r="445" spans="1:14">
-      <c r="A445" s="1"/>
+      <c r="A445" s="1">
+        <v>2021</v>
+      </c>
       <c r="B445" s="3">
         <v>90</v>
       </c>
@@ -19683,7 +20560,9 @@
       <c r="N445" s="4"/>
     </row>
     <row r="446" spans="1:14">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1">
+        <v>2021</v>
+      </c>
       <c r="B446" s="3">
         <v>91</v>
       </c>
@@ -19719,7 +20598,9 @@
       <c r="N446" s="4"/>
     </row>
     <row r="447" spans="1:14">
-      <c r="A447" s="1"/>
+      <c r="A447" s="1">
+        <v>2021</v>
+      </c>
       <c r="B447" s="3">
         <v>92</v>
       </c>
@@ -19755,7 +20636,9 @@
       <c r="N447" s="4"/>
     </row>
     <row r="448" spans="1:14">
-      <c r="A448" s="1"/>
+      <c r="A448" s="1">
+        <v>2021</v>
+      </c>
       <c r="B448" s="3">
         <v>93</v>
       </c>
@@ -19791,7 +20674,9 @@
       <c r="N448" s="4"/>
     </row>
     <row r="449" spans="1:14">
-      <c r="A449" s="1"/>
+      <c r="A449" s="1">
+        <v>2021</v>
+      </c>
       <c r="B449" s="3">
         <v>94</v>
       </c>
@@ -19827,7 +20712,9 @@
       <c r="N449" s="4"/>
     </row>
     <row r="450" spans="1:14">
-      <c r="A450" s="1"/>
+      <c r="A450" s="1">
+        <v>2021</v>
+      </c>
       <c r="B450" s="3">
         <v>95</v>
       </c>
@@ -19863,7 +20750,9 @@
       <c r="N450" s="4"/>
     </row>
     <row r="451" spans="1:14">
-      <c r="A451" s="1"/>
+      <c r="A451" s="1">
+        <v>2021</v>
+      </c>
       <c r="B451" s="3">
         <v>96</v>
       </c>
@@ -19899,7 +20788,9 @@
       <c r="N451" s="4"/>
     </row>
     <row r="452" spans="1:14">
-      <c r="A452" s="1"/>
+      <c r="A452" s="1">
+        <v>2021</v>
+      </c>
       <c r="B452" s="3">
         <v>97</v>
       </c>
@@ -19935,7 +20826,9 @@
       <c r="N452" s="4"/>
     </row>
     <row r="453" spans="1:14">
-      <c r="A453" s="1"/>
+      <c r="A453" s="1">
+        <v>2021</v>
+      </c>
       <c r="B453" s="3">
         <v>98</v>
       </c>
@@ -19971,7 +20864,9 @@
       <c r="N453" s="4"/>
     </row>
     <row r="454" spans="1:14">
-      <c r="A454" s="1"/>
+      <c r="A454" s="1">
+        <v>2021</v>
+      </c>
       <c r="B454" s="3">
         <v>99</v>
       </c>
@@ -20007,7 +20902,9 @@
       <c r="N454" s="4"/>
     </row>
     <row r="455" spans="1:14">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1">
+        <v>2021</v>
+      </c>
       <c r="B455" s="3">
         <v>100</v>
       </c>
@@ -20043,7 +20940,9 @@
       <c r="N455" s="4"/>
     </row>
     <row r="456" spans="1:14">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1">
+        <v>2021</v>
+      </c>
       <c r="B456" s="3">
         <v>101</v>
       </c>
@@ -20079,7 +20978,9 @@
       <c r="N456" s="4"/>
     </row>
     <row r="457" spans="1:14">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1">
+        <v>2021</v>
+      </c>
       <c r="B457" s="3">
         <v>102</v>
       </c>
@@ -20115,7 +21016,9 @@
       <c r="N457" s="4"/>
     </row>
     <row r="458" spans="1:14">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1">
+        <v>2021</v>
+      </c>
       <c r="B458" s="3">
         <v>103</v>
       </c>
@@ -20151,7 +21054,9 @@
       <c r="N458" s="4"/>
     </row>
     <row r="459" spans="1:14">
-      <c r="A459" s="1"/>
+      <c r="A459" s="1">
+        <v>2021</v>
+      </c>
       <c r="B459" s="3">
         <v>104</v>
       </c>
@@ -20187,7 +21092,9 @@
       <c r="N459" s="4"/>
     </row>
     <row r="460" spans="1:14">
-      <c r="A460" s="1"/>
+      <c r="A460" s="1">
+        <v>2021</v>
+      </c>
       <c r="B460" s="3">
         <v>105</v>
       </c>
@@ -20223,7 +21130,9 @@
       <c r="N460" s="4"/>
     </row>
     <row r="461" spans="1:14">
-      <c r="A461" s="1"/>
+      <c r="A461" s="1">
+        <v>2021</v>
+      </c>
       <c r="B461" s="3">
         <v>106</v>
       </c>
@@ -20259,7 +21168,9 @@
       <c r="N461" s="4"/>
     </row>
     <row r="462" spans="1:14">
-      <c r="A462" s="1"/>
+      <c r="A462" s="1">
+        <v>2021</v>
+      </c>
       <c r="B462" s="3">
         <v>107</v>
       </c>
@@ -20295,7 +21206,9 @@
       <c r="N462" s="4"/>
     </row>
     <row r="463" spans="1:14">
-      <c r="A463" s="1"/>
+      <c r="A463" s="1">
+        <v>2021</v>
+      </c>
       <c r="B463" s="3">
         <v>108</v>
       </c>
@@ -20331,7 +21244,9 @@
       <c r="N463" s="4"/>
     </row>
     <row r="464" spans="1:14">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1">
+        <v>2021</v>
+      </c>
       <c r="B464" s="3">
         <v>109</v>
       </c>
@@ -20367,7 +21282,9 @@
       <c r="N464" s="4"/>
     </row>
     <row r="465" spans="1:14">
-      <c r="A465" s="1"/>
+      <c r="A465" s="1">
+        <v>2021</v>
+      </c>
       <c r="B465" s="3">
         <v>110</v>
       </c>
@@ -20403,7 +21320,9 @@
       <c r="N465" s="4"/>
     </row>
     <row r="466" spans="1:14">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1">
+        <v>2021</v>
+      </c>
       <c r="B466" s="3">
         <v>111</v>
       </c>
@@ -20439,7 +21358,9 @@
       <c r="N466" s="4"/>
     </row>
     <row r="467" spans="1:14">
-      <c r="A467" s="1"/>
+      <c r="A467" s="1">
+        <v>2021</v>
+      </c>
       <c r="B467" s="3">
         <v>112</v>
       </c>
@@ -20475,7 +21396,9 @@
       <c r="N467" s="4"/>
     </row>
     <row r="468" spans="1:14">
-      <c r="A468" s="1"/>
+      <c r="A468" s="1">
+        <v>2021</v>
+      </c>
       <c r="B468" s="3">
         <v>113</v>
       </c>
@@ -20511,7 +21434,9 @@
       <c r="N468" s="4"/>
     </row>
     <row r="469" spans="1:14">
-      <c r="A469" s="1"/>
+      <c r="A469" s="1">
+        <v>2021</v>
+      </c>
       <c r="B469" s="3">
         <v>114</v>
       </c>
@@ -20547,7 +21472,9 @@
       <c r="N469" s="4"/>
     </row>
     <row r="470" spans="1:14">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1">
+        <v>2021</v>
+      </c>
       <c r="B470" s="3">
         <v>115</v>
       </c>
@@ -20583,7 +21510,9 @@
       <c r="N470" s="4"/>
     </row>
     <row r="471" spans="1:14">
-      <c r="A471" s="1"/>
+      <c r="A471" s="1">
+        <v>2021</v>
+      </c>
       <c r="B471" s="3">
         <v>116</v>
       </c>
@@ -20619,7 +21548,9 @@
       <c r="N471" s="4"/>
     </row>
     <row r="472" spans="1:14">
-      <c r="A472" s="1"/>
+      <c r="A472" s="1">
+        <v>2021</v>
+      </c>
       <c r="B472" s="3">
         <v>117</v>
       </c>
@@ -20655,7 +21586,9 @@
       <c r="N472" s="4"/>
     </row>
     <row r="473" spans="1:14">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1">
+        <v>2021</v>
+      </c>
       <c r="B473" s="3">
         <v>118</v>
       </c>
@@ -20691,7 +21624,9 @@
       <c r="N473" s="4"/>
     </row>
     <row r="474" spans="1:14">
-      <c r="A474" s="1"/>
+      <c r="A474" s="1">
+        <v>2021</v>
+      </c>
       <c r="B474" s="3">
         <v>119</v>
       </c>
@@ -20727,7 +21662,9 @@
       <c r="N474" s="4"/>
     </row>
     <row r="475" spans="1:14">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1">
+        <v>2021</v>
+      </c>
       <c r="B475" s="3">
         <v>120</v>
       </c>
@@ -20763,7 +21700,9 @@
       <c r="N475" s="4"/>
     </row>
     <row r="476" spans="1:14">
-      <c r="A476" s="1"/>
+      <c r="A476" s="1">
+        <v>2021</v>
+      </c>
       <c r="B476" s="3">
         <v>121</v>
       </c>
@@ -20799,7 +21738,9 @@
       <c r="N476" s="4"/>
     </row>
     <row r="477" spans="1:14">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1">
+        <v>2021</v>
+      </c>
       <c r="B477" s="3">
         <v>122</v>
       </c>
@@ -20835,7 +21776,9 @@
       <c r="N477" s="4"/>
     </row>
     <row r="478" spans="1:14">
-      <c r="A478" s="1"/>
+      <c r="A478" s="1">
+        <v>2021</v>
+      </c>
       <c r="B478" s="3">
         <v>123</v>
       </c>
@@ -20871,7 +21814,9 @@
       <c r="N478" s="4"/>
     </row>
     <row r="479" spans="1:14">
-      <c r="A479" s="1"/>
+      <c r="A479" s="1">
+        <v>2021</v>
+      </c>
       <c r="B479" s="3">
         <v>124</v>
       </c>
@@ -20907,7 +21852,9 @@
       <c r="N479" s="4"/>
     </row>
     <row r="480" spans="1:14">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1">
+        <v>2021</v>
+      </c>
       <c r="B480" s="3">
         <v>125</v>
       </c>
@@ -20943,7 +21890,9 @@
       <c r="N480" s="4"/>
     </row>
     <row r="481" spans="1:14">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1">
+        <v>2021</v>
+      </c>
       <c r="B481" s="3">
         <v>126</v>
       </c>
@@ -20979,11 +21928,6 @@
       <c r="N481" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A201"/>
-    <mergeCell ref="A202:A354"/>
-    <mergeCell ref="A355:A481"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
